--- a/data/Compiled_hcRatio_UncertaintyUpdate.xlsx
+++ b/data/Compiled_hcRatio_UncertaintyUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Research\Data\Data Compilations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6006328D-A244-47EC-9168-88C652C54574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB63BC-F75D-494A-915E-694523D4AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DACF39EB-0C7B-47E2-9198-53187A405652}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9106" uniqueCount="2936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9019" uniqueCount="2934">
   <si>
     <t>KEY</t>
   </si>
@@ -8819,16 +8819,10 @@
     <t>Formation uncertain. Unita is Eocene, added uncertainty for all of Cenozoic</t>
   </si>
   <si>
-    <t>Uncertainty here doesn't make sense</t>
-  </si>
-  <si>
     <t>Period Average</t>
   </si>
   <si>
     <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Std_Fm_Name</t>
@@ -8918,14 +8912,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15059,9 +15051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3FE7E0-FE7C-46DB-8227-F77D0E7DC2E0}">
   <dimension ref="A1:P682"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C658" sqref="C658"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q606" sqref="Q606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15084,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -15096,19 +15088,19 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="H1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="I1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="J1" t="s">
         <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="L1" t="s">
         <v>30</v>
@@ -15123,7 +15115,7 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -37254,7 +37246,7 @@
         <v>2881</v>
       </c>
       <c r="P554" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="555" spans="1:16" x14ac:dyDescent="0.3">
@@ -37296,7 +37288,7 @@
         <v>2881</v>
       </c>
       <c r="P555" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="556" spans="1:16" x14ac:dyDescent="0.3">
@@ -37338,7 +37330,7 @@
         <v>2881</v>
       </c>
       <c r="P556" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.3">
@@ -37380,7 +37372,7 @@
         <v>2881</v>
       </c>
       <c r="P557" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.3">
@@ -37422,7 +37414,7 @@
         <v>2881</v>
       </c>
       <c r="P558" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="559" spans="1:16" x14ac:dyDescent="0.3">
@@ -37464,7 +37456,7 @@
         <v>2881</v>
       </c>
       <c r="P559" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.3">
@@ -37506,7 +37498,7 @@
         <v>2881</v>
       </c>
       <c r="P560" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="561" spans="1:16" x14ac:dyDescent="0.3">
@@ -37548,7 +37540,7 @@
         <v>2881</v>
       </c>
       <c r="P561" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="562" spans="1:16" x14ac:dyDescent="0.3">
@@ -37590,7 +37582,7 @@
         <v>2881</v>
       </c>
       <c r="P562" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.3">
@@ -37632,7 +37624,7 @@
         <v>2881</v>
       </c>
       <c r="P563" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="564" spans="1:16" x14ac:dyDescent="0.3">
@@ -37674,7 +37666,7 @@
         <v>2881</v>
       </c>
       <c r="P564" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.3">
@@ -37716,7 +37708,7 @@
         <v>2881</v>
       </c>
       <c r="P565" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="566" spans="1:16" x14ac:dyDescent="0.3">
@@ -37758,7 +37750,7 @@
         <v>2881</v>
       </c>
       <c r="P566" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.3">
@@ -37800,7 +37792,7 @@
         <v>2881</v>
       </c>
       <c r="P567" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.3">
@@ -37842,7 +37834,7 @@
         <v>2881</v>
       </c>
       <c r="P568" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="569" spans="1:16" x14ac:dyDescent="0.3">
@@ -37884,7 +37876,7 @@
         <v>2881</v>
       </c>
       <c r="P569" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="570" spans="1:16" x14ac:dyDescent="0.3">
@@ -37926,7 +37918,7 @@
         <v>2881</v>
       </c>
       <c r="P570" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.3">
@@ -37968,7 +37960,7 @@
         <v>2881</v>
       </c>
       <c r="P571" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="572" spans="1:16" x14ac:dyDescent="0.3">
@@ -38010,7 +38002,7 @@
         <v>2881</v>
       </c>
       <c r="P572" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.3">
@@ -38052,7 +38044,7 @@
         <v>2881</v>
       </c>
       <c r="P573" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="574" spans="1:16" x14ac:dyDescent="0.3">
@@ -38094,7 +38086,7 @@
         <v>2881</v>
       </c>
       <c r="P574" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="575" spans="1:16" x14ac:dyDescent="0.3">
@@ -38136,7 +38128,7 @@
         <v>2881</v>
       </c>
       <c r="P575" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.3">
@@ -38178,7 +38170,7 @@
         <v>2881</v>
       </c>
       <c r="P576" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="577" spans="1:16" x14ac:dyDescent="0.3">
@@ -38220,7 +38212,7 @@
         <v>2881</v>
       </c>
       <c r="P577" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="578" spans="1:16" x14ac:dyDescent="0.3">
@@ -38262,7 +38254,7 @@
         <v>2881</v>
       </c>
       <c r="P578" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="579" spans="1:16" x14ac:dyDescent="0.3">
@@ -38304,7 +38296,7 @@
         <v>2881</v>
       </c>
       <c r="P579" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.3">
@@ -38346,7 +38338,7 @@
         <v>2881</v>
       </c>
       <c r="P580" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.3">
@@ -38388,7 +38380,7 @@
         <v>2881</v>
       </c>
       <c r="P581" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="582" spans="1:16" x14ac:dyDescent="0.3">
@@ -38430,7 +38422,7 @@
         <v>2881</v>
       </c>
       <c r="P582" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.3">
@@ -38472,7 +38464,7 @@
         <v>2881</v>
       </c>
       <c r="P583" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="584" spans="1:16" x14ac:dyDescent="0.3">
@@ -38514,7 +38506,7 @@
         <v>2881</v>
       </c>
       <c r="P584" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="585" spans="1:16" x14ac:dyDescent="0.3">
@@ -38556,7 +38548,7 @@
         <v>2881</v>
       </c>
       <c r="P585" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="586" spans="1:16" x14ac:dyDescent="0.3">
@@ -38601,7 +38593,7 @@
         <v>2918</v>
       </c>
       <c r="P586" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="587" spans="1:16" x14ac:dyDescent="0.3">
@@ -38643,7 +38635,7 @@
         <v>2881</v>
       </c>
       <c r="P587" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.3">
@@ -38685,7 +38677,7 @@
         <v>2881</v>
       </c>
       <c r="P588" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.3">
@@ -38727,7 +38719,7 @@
         <v>2881</v>
       </c>
       <c r="P589" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="590" spans="1:16" x14ac:dyDescent="0.3">
@@ -38769,7 +38761,7 @@
         <v>2881</v>
       </c>
       <c r="P590" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="591" spans="1:16" x14ac:dyDescent="0.3">
@@ -38811,7 +38803,7 @@
         <v>2881</v>
       </c>
       <c r="P591" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.3">
@@ -38853,7 +38845,7 @@
         <v>2881</v>
       </c>
       <c r="P592" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.3">
@@ -38895,7 +38887,7 @@
         <v>2881</v>
       </c>
       <c r="P593" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.3">
@@ -38937,7 +38929,7 @@
         <v>2881</v>
       </c>
       <c r="P594" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.3">
@@ -38979,7 +38971,7 @@
         <v>2881</v>
       </c>
       <c r="P595" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="596" spans="1:16" x14ac:dyDescent="0.3">
@@ -39021,7 +39013,7 @@
         <v>2881</v>
       </c>
       <c r="P596" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.3">
@@ -39063,7 +39055,7 @@
         <v>2881</v>
       </c>
       <c r="P597" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="598" spans="1:16" x14ac:dyDescent="0.3">
@@ -39105,7 +39097,7 @@
         <v>2881</v>
       </c>
       <c r="P598" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="599" spans="1:16" x14ac:dyDescent="0.3">
@@ -39147,7 +39139,7 @@
         <v>2881</v>
       </c>
       <c r="P599" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.3">
@@ -39189,7 +39181,7 @@
         <v>2881</v>
       </c>
       <c r="P600" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="601" spans="1:16" x14ac:dyDescent="0.3">
@@ -39231,7 +39223,7 @@
         <v>2881</v>
       </c>
       <c r="P601" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="602" spans="1:16" x14ac:dyDescent="0.3">
@@ -39273,7 +39265,7 @@
         <v>2881</v>
       </c>
       <c r="P602" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="603" spans="1:16" x14ac:dyDescent="0.3">
@@ -39315,7 +39307,7 @@
         <v>2881</v>
       </c>
       <c r="P603" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="604" spans="1:16" x14ac:dyDescent="0.3">
@@ -39344,8 +39336,9 @@
       <c r="G604" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H604" s="3" t="s">
-        <v>2927</v>
+      <c r="H604" s="4">
+        <f>G604+0.05*G604</f>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="I604" s="4"/>
       <c r="J604" t="s">
@@ -39357,12 +39350,6 @@
       <c r="M604" t="s">
         <v>2882</v>
       </c>
-      <c r="N604" t="s">
-        <v>32</v>
-      </c>
-      <c r="O604" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A605">
@@ -39390,8 +39377,9 @@
       <c r="G605" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H605" s="3" t="s">
-        <v>2927</v>
+      <c r="H605" s="4">
+        <f t="shared" ref="H605:H632" si="0">G605+0.05*G605</f>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="I605" s="4"/>
       <c r="J605" t="s">
@@ -39403,12 +39391,6 @@
       <c r="M605" t="s">
         <v>2882</v>
       </c>
-      <c r="N605" t="s">
-        <v>32</v>
-      </c>
-      <c r="O605" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A606">
@@ -39436,8 +39418,9 @@
       <c r="G606" s="4">
         <v>6.3E-3</v>
       </c>
-      <c r="H606" s="3" t="s">
-        <v>2927</v>
+      <c r="H606" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6150000000000002E-3</v>
       </c>
       <c r="I606" s="4"/>
       <c r="J606" t="s">
@@ -39449,12 +39432,6 @@
       <c r="M606" t="s">
         <v>2882</v>
       </c>
-      <c r="N606" t="s">
-        <v>32</v>
-      </c>
-      <c r="O606" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A607">
@@ -39482,8 +39459,9 @@
       <c r="G607" s="4">
         <v>9.6999999999999986E-3</v>
       </c>
-      <c r="H607" s="3" t="s">
-        <v>2927</v>
+      <c r="H607" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0184999999999998E-2</v>
       </c>
       <c r="I607" s="4"/>
       <c r="J607" t="s">
@@ -39495,12 +39473,6 @@
       <c r="M607" t="s">
         <v>2882</v>
       </c>
-      <c r="N607" t="s">
-        <v>32</v>
-      </c>
-      <c r="O607" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A608">
@@ -39528,8 +39500,9 @@
       <c r="G608" s="4">
         <v>1.24E-2</v>
       </c>
-      <c r="H608" s="3" t="s">
-        <v>2927</v>
+      <c r="H608" s="4">
+        <f t="shared" si="0"/>
+        <v>1.302E-2</v>
       </c>
       <c r="I608" s="4"/>
       <c r="J608" t="s">
@@ -39541,14 +39514,8 @@
       <c r="M608" t="s">
         <v>2882</v>
       </c>
-      <c r="N608" t="s">
-        <v>32</v>
-      </c>
-      <c r="O608" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>608</v>
       </c>
@@ -39574,8 +39541,9 @@
       <c r="G609" s="4">
         <v>1.34E-2</v>
       </c>
-      <c r="H609" s="3" t="s">
-        <v>2927</v>
+      <c r="H609" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4070000000000001E-2</v>
       </c>
       <c r="I609" s="4"/>
       <c r="J609" t="s">
@@ -39587,14 +39555,8 @@
       <c r="M609" t="s">
         <v>2882</v>
       </c>
-      <c r="N609" t="s">
-        <v>32</v>
-      </c>
-      <c r="O609" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>609</v>
       </c>
@@ -39620,8 +39582,9 @@
       <c r="G610" s="4">
         <v>1.9100000000000002E-2</v>
       </c>
-      <c r="H610" s="3" t="s">
-        <v>2927</v>
+      <c r="H610" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0055000000000003E-2</v>
       </c>
       <c r="I610" s="4"/>
       <c r="J610" t="s">
@@ -39633,14 +39596,8 @@
       <c r="M610" t="s">
         <v>2882</v>
       </c>
-      <c r="N610" t="s">
-        <v>32</v>
-      </c>
-      <c r="O610" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>610</v>
       </c>
@@ -39666,8 +39623,9 @@
       <c r="G611" s="4">
         <v>2.7E-2</v>
       </c>
-      <c r="H611" s="3" t="s">
-        <v>2927</v>
+      <c r="H611" s="4">
+        <f t="shared" si="0"/>
+        <v>2.835E-2</v>
       </c>
       <c r="I611" s="4"/>
       <c r="J611" t="s">
@@ -39679,14 +39637,8 @@
       <c r="M611" t="s">
         <v>2882</v>
       </c>
-      <c r="N611" t="s">
-        <v>32</v>
-      </c>
-      <c r="O611" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>611</v>
       </c>
@@ -39712,8 +39664,9 @@
       <c r="G612" s="4">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="H612" s="3" t="s">
-        <v>2927</v>
+      <c r="H612" s="4">
+        <f t="shared" si="0"/>
+        <v>3.381E-2</v>
       </c>
       <c r="I612" s="4"/>
       <c r="J612" t="s">
@@ -39725,14 +39678,8 @@
       <c r="M612" t="s">
         <v>2882</v>
       </c>
-      <c r="N612" t="s">
-        <v>32</v>
-      </c>
-      <c r="O612" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>612</v>
       </c>
@@ -39758,8 +39705,9 @@
       <c r="G613" s="4">
         <v>3.44E-2</v>
       </c>
-      <c r="H613" s="3" t="s">
-        <v>2927</v>
+      <c r="H613" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6119999999999999E-2</v>
       </c>
       <c r="I613" s="4"/>
       <c r="J613" t="s">
@@ -39771,14 +39719,8 @@
       <c r="M613" t="s">
         <v>2882</v>
       </c>
-      <c r="N613" t="s">
-        <v>32</v>
-      </c>
-      <c r="O613" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>613</v>
       </c>
@@ -39804,8 +39746,9 @@
       <c r="G614" s="4">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="H614" s="3" t="s">
-        <v>2927</v>
+      <c r="H614" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0004999999999999E-2</v>
       </c>
       <c r="I614" s="4"/>
       <c r="J614" t="s">
@@ -39817,14 +39760,8 @@
       <c r="M614" t="s">
         <v>2882</v>
       </c>
-      <c r="N614" t="s">
-        <v>32</v>
-      </c>
-      <c r="O614" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>614</v>
       </c>
@@ -39850,8 +39787,9 @@
       <c r="G615" s="4">
         <v>3.9700000000000006E-2</v>
       </c>
-      <c r="H615" s="3" t="s">
-        <v>2927</v>
+      <c r="H615" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1685000000000007E-2</v>
       </c>
       <c r="I615" s="4"/>
       <c r="J615" t="s">
@@ -39863,14 +39801,8 @@
       <c r="M615" t="s">
         <v>2882</v>
       </c>
-      <c r="N615" t="s">
-        <v>32</v>
-      </c>
-      <c r="O615" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>615</v>
       </c>
@@ -39896,8 +39828,9 @@
       <c r="G616" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H616" s="3" t="s">
-        <v>2927</v>
+      <c r="H616" s="4">
+        <f t="shared" si="0"/>
+        <v>5.67E-2</v>
       </c>
       <c r="I616" s="4"/>
       <c r="J616" t="s">
@@ -39909,14 +39842,8 @@
       <c r="M616" t="s">
         <v>2882</v>
       </c>
-      <c r="N616" t="s">
-        <v>32</v>
-      </c>
-      <c r="O616" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>616</v>
       </c>
@@ -39942,8 +39869,9 @@
       <c r="G617" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="H617" s="3" t="s">
-        <v>2927</v>
+      <c r="H617" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5519999999999995E-2</v>
       </c>
       <c r="I617" s="4"/>
       <c r="J617" t="s">
@@ -39955,14 +39883,8 @@
       <c r="M617" t="s">
         <v>2882</v>
       </c>
-      <c r="N617" t="s">
-        <v>32</v>
-      </c>
-      <c r="O617" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>617</v>
       </c>
@@ -39988,8 +39910,9 @@
       <c r="G618" s="4">
         <v>8.0700000000000008E-2</v>
       </c>
-      <c r="H618" s="3" t="s">
-        <v>2927</v>
+      <c r="H618" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4735000000000005E-2</v>
       </c>
       <c r="I618" s="4"/>
       <c r="J618" t="s">
@@ -40001,14 +39924,8 @@
       <c r="M618" t="s">
         <v>2882</v>
       </c>
-      <c r="N618" t="s">
-        <v>32</v>
-      </c>
-      <c r="O618" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>618</v>
       </c>
@@ -40034,8 +39951,9 @@
       <c r="G619" s="4">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="H619" s="3" t="s">
-        <v>2927</v>
+      <c r="H619" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5235E-2</v>
       </c>
       <c r="I619" s="4"/>
       <c r="J619" t="s">
@@ -40047,14 +39965,8 @@
       <c r="M619" t="s">
         <v>2882</v>
       </c>
-      <c r="N619" t="s">
-        <v>32</v>
-      </c>
-      <c r="O619" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>619</v>
       </c>
@@ -40080,8 +39992,9 @@
       <c r="G620" s="4">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="H620" s="3" t="s">
-        <v>2927</v>
+      <c r="H620" s="4">
+        <f t="shared" si="0"/>
+        <v>0.101325</v>
       </c>
       <c r="I620" s="4"/>
       <c r="J620" t="s">
@@ -40093,14 +40006,8 @@
       <c r="M620" t="s">
         <v>2882</v>
       </c>
-      <c r="N620" t="s">
-        <v>32</v>
-      </c>
-      <c r="O620" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>620</v>
       </c>
@@ -40126,8 +40033,9 @@
       <c r="G621" s="4">
         <v>0.1085</v>
       </c>
-      <c r="H621" s="3" t="s">
-        <v>2927</v>
+      <c r="H621" s="4">
+        <f t="shared" si="0"/>
+        <v>0.113925</v>
       </c>
       <c r="I621" s="4"/>
       <c r="J621" t="s">
@@ -40139,14 +40047,8 @@
       <c r="M621" t="s">
         <v>2882</v>
       </c>
-      <c r="N621" t="s">
-        <v>32</v>
-      </c>
-      <c r="O621" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>621</v>
       </c>
@@ -40172,8 +40074,9 @@
       <c r="G622" s="4">
         <v>0.11209999999999999</v>
       </c>
-      <c r="H622" s="3" t="s">
-        <v>2927</v>
+      <c r="H622" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11770499999999999</v>
       </c>
       <c r="I622" s="4"/>
       <c r="J622" t="s">
@@ -40185,14 +40088,8 @@
       <c r="M622" t="s">
         <v>2882</v>
       </c>
-      <c r="N622" t="s">
-        <v>32</v>
-      </c>
-      <c r="O622" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>622</v>
       </c>
@@ -40218,8 +40115,9 @@
       <c r="G623" s="4">
         <v>0.1162</v>
       </c>
-      <c r="H623" s="3" t="s">
-        <v>2927</v>
+      <c r="H623" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12200999999999999</v>
       </c>
       <c r="I623" s="4"/>
       <c r="J623" t="s">
@@ -40231,14 +40129,8 @@
       <c r="M623" t="s">
         <v>2882</v>
       </c>
-      <c r="N623" t="s">
-        <v>32</v>
-      </c>
-      <c r="O623" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>623</v>
       </c>
@@ -40264,8 +40156,9 @@
       <c r="G624" s="4">
         <v>0.1177</v>
       </c>
-      <c r="H624" s="3" t="s">
-        <v>2927</v>
+      <c r="H624" s="4">
+        <f t="shared" si="0"/>
+        <v>0.123585</v>
       </c>
       <c r="I624" s="4"/>
       <c r="J624" t="s">
@@ -40277,12 +40170,6 @@
       <c r="M624" t="s">
         <v>2882</v>
       </c>
-      <c r="N624" t="s">
-        <v>32</v>
-      </c>
-      <c r="O624" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
@@ -40310,8 +40197,9 @@
       <c r="G625" s="4">
         <v>0.12520000000000001</v>
       </c>
-      <c r="H625" s="3" t="s">
-        <v>2927</v>
+      <c r="H625" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13145999999999999</v>
       </c>
       <c r="I625" s="4"/>
       <c r="J625" t="s">
@@ -40323,12 +40211,6 @@
       <c r="M625" t="s">
         <v>2882</v>
       </c>
-      <c r="N625" t="s">
-        <v>32</v>
-      </c>
-      <c r="O625" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
@@ -40356,8 +40238,9 @@
       <c r="G626" s="4">
         <v>0.13319999999999999</v>
       </c>
-      <c r="H626" s="3" t="s">
-        <v>2927</v>
+      <c r="H626" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13985999999999998</v>
       </c>
       <c r="I626" s="4"/>
       <c r="J626" t="s">
@@ -40369,12 +40252,6 @@
       <c r="M626" t="s">
         <v>2882</v>
       </c>
-      <c r="N626" t="s">
-        <v>32</v>
-      </c>
-      <c r="O626" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
@@ -40402,8 +40279,9 @@
       <c r="G627" s="4">
         <v>0.13450000000000001</v>
       </c>
-      <c r="H627" s="3" t="s">
-        <v>2927</v>
+      <c r="H627" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14122500000000002</v>
       </c>
       <c r="I627" s="4"/>
       <c r="J627" t="s">
@@ -40415,12 +40293,6 @@
       <c r="M627" t="s">
         <v>2882</v>
       </c>
-      <c r="N627" t="s">
-        <v>32</v>
-      </c>
-      <c r="O627" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
@@ -40448,8 +40320,9 @@
       <c r="G628" s="4">
         <v>0.13950000000000001</v>
       </c>
-      <c r="H628" s="3" t="s">
-        <v>2927</v>
+      <c r="H628" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14647500000000002</v>
       </c>
       <c r="I628" s="4"/>
       <c r="J628" t="s">
@@ -40461,12 +40334,6 @@
       <c r="M628" t="s">
         <v>2882</v>
       </c>
-      <c r="N628" t="s">
-        <v>32</v>
-      </c>
-      <c r="O628" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
@@ -40494,8 +40361,9 @@
       <c r="G629" s="4">
         <v>0.1429</v>
       </c>
-      <c r="H629" s="3" t="s">
-        <v>2927</v>
+      <c r="H629" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15004500000000001</v>
       </c>
       <c r="I629" s="4"/>
       <c r="J629" t="s">
@@ -40507,12 +40375,6 @@
       <c r="M629" t="s">
         <v>2882</v>
       </c>
-      <c r="N629" t="s">
-        <v>32</v>
-      </c>
-      <c r="O629" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
@@ -40540,8 +40402,9 @@
       <c r="G630" s="4">
         <v>0.14980000000000002</v>
       </c>
-      <c r="H630" s="3" t="s">
-        <v>2927</v>
+      <c r="H630" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15729000000000001</v>
       </c>
       <c r="I630" s="4"/>
       <c r="J630" t="s">
@@ -40553,12 +40416,6 @@
       <c r="M630" t="s">
         <v>2882</v>
       </c>
-      <c r="N630" t="s">
-        <v>32</v>
-      </c>
-      <c r="O630" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
@@ -40586,8 +40443,9 @@
       <c r="G631" s="4">
         <v>0.15609999999999999</v>
       </c>
-      <c r="H631" s="3" t="s">
-        <v>2927</v>
+      <c r="H631" s="4">
+        <f t="shared" si="0"/>
+        <v>0.163905</v>
       </c>
       <c r="I631" s="4"/>
       <c r="J631" t="s">
@@ -40599,12 +40457,6 @@
       <c r="M631" t="s">
         <v>2882</v>
       </c>
-      <c r="N631" t="s">
-        <v>32</v>
-      </c>
-      <c r="O631" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632">
@@ -40632,8 +40484,9 @@
       <c r="G632" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="H632" s="3" t="s">
-        <v>2927</v>
+      <c r="H632" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16684500000000002</v>
       </c>
       <c r="I632" s="4"/>
       <c r="J632" t="s">
@@ -40645,12 +40498,6 @@
       <c r="M632" t="s">
         <v>2882</v>
       </c>
-      <c r="N632" t="s">
-        <v>32</v>
-      </c>
-      <c r="O632" t="s">
-        <v>2924</v>
-      </c>
     </row>
     <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633">
@@ -41095,7 +40942,7 @@
         <f>VLOOKUP(C643, STANDARDS!B:E, 4, FALSE)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="G643" s="5">
+      <c r="G643">
         <v>489</v>
       </c>
       <c r="H643" s="3">
@@ -41111,7 +40958,7 @@
         <v>32</v>
       </c>
       <c r="O643" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="644" spans="1:15" x14ac:dyDescent="0.3">
@@ -41137,7 +40984,7 @@
         <f>VLOOKUP(C644, STANDARDS!B:E, 4, FALSE)</f>
         <v>-108.6</v>
       </c>
-      <c r="G644" s="5">
+      <c r="G644">
         <v>51</v>
       </c>
       <c r="H644" s="3">
@@ -41173,7 +41020,7 @@
         <f>VLOOKUP(C645, STANDARDS!B:E, 4, FALSE)</f>
         <v>-108.6</v>
       </c>
-      <c r="G645" s="5">
+      <c r="G645">
         <v>51</v>
       </c>
       <c r="H645" s="3">
@@ -41209,7 +41056,7 @@
         <f>VLOOKUP(C646, STANDARDS!B:E, 4, FALSE)</f>
         <v>34.770000000000003</v>
       </c>
-      <c r="G646" s="6">
+      <c r="G646" s="3">
         <v>83.5</v>
       </c>
       <c r="H646" s="3">
@@ -41245,7 +41092,7 @@
         <f>VLOOKUP(C647, STANDARDS!B:E, 4, FALSE)</f>
         <v>34.770000000000003</v>
       </c>
-      <c r="G647" s="6">
+      <c r="G647" s="3">
         <v>83.5</v>
       </c>
       <c r="H647" s="3">
@@ -41287,7 +41134,7 @@
         <f>VLOOKUP(C648, STANDARDS!B:E, 4, FALSE)</f>
         <v>-108.6</v>
       </c>
-      <c r="G648" s="5">
+      <c r="G648">
         <v>33</v>
       </c>
       <c r="H648" s="3">
@@ -41329,7 +41176,7 @@
         <f>VLOOKUP(C649, STANDARDS!B:E, 4, FALSE)</f>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G649" s="6">
+      <c r="G649" s="3">
         <v>154.5</v>
       </c>
       <c r="H649" s="3">
@@ -41365,7 +41212,7 @@
         <f>VLOOKUP(C650, STANDARDS!B:E, 4, FALSE)</f>
         <v>-108.6</v>
       </c>
-      <c r="G650" s="5">
+      <c r="G650">
         <v>371</v>
       </c>
       <c r="H650" s="3">
@@ -41401,7 +41248,7 @@
         <f>VLOOKUP(C651, STANDARDS!B:E, 4, FALSE)</f>
         <v>-112.5</v>
       </c>
-      <c r="G651" s="5">
+      <c r="G651">
         <v>286</v>
       </c>
       <c r="H651" s="3">
@@ -42686,7 +42533,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1642</v>
@@ -79186,7 +79033,7 @@
         <v>2906</v>
       </c>
       <c r="B1922" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="C1922" t="s">
         <v>2896</v>
